--- a/docs/PTA2_DDC_30/PTA2_DDC_30_01.08.24_output.xlsx
+++ b/docs/PTA2_DDC_30/PTA2_DDC_30_01.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K117"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,2623 +505,3107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731434405.345374</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731434408.2515092</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731434405.345374.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731434408.2515092.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>289.86</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>289.72</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.1399999999999864</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731434414.169327</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731434415.9380875</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731434414.169327.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731434415.9380875.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>289.14</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>289.63</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.4900000000000091</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731434419.2963085</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731434425.8003922</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731434419.2963085.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731434425.8003922.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>289.1</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>288.06</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-1.04000000000002</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731434427.7604086</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731434429.1755543</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731434427.7604086.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731434429.1755543.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>133.83</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>133.49</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.3400000000000034</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731434432.8426986</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731434433.4205189</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731434432.8426986.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731434433.4205189.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>133.15</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>133.42</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.2699999999999818</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731434435.964958</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731434437.6670976</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731434435.964958.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731434437.6670976.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>132.74</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>133.27</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.5300000000000011</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731434439.200469</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731434441.5758061</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731434439.200469.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731434441.5758061.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>133.37</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>133.12</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.25</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731434442.1666846</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731434444.7651918</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731434442.1666846.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731434444.7651918.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>132.83</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>132.89</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.05999999999997385</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731434445.2291443</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731434448.118332</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731434445.2291443.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731434448.118332.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>132.5</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>132.3</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.1999999999999886</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731434449.745742</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731434450.0076797</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731434449.745742.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731434450.0076797.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>6741</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>6757</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>16</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731434451.0856583</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731434451.6082008</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731434451.0856583.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731434451.6082008.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>6770</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>6755</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>15</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731434451.7097375</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731434452.1382098</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731434451.7097375.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731434452.1382098.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6740</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>6749</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>9</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731434452.152173</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731434452.3969178</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731434452.152173.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731434452.3969178.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>6749</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>6754</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-5</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731434457.9417868</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731434460.9909832</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731434457.9417868.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731434460.9909832.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>6745.5</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>6726</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-19.5</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731434469.5234642</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731434469.5234642.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731434469.5234642.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>6703.5</v>
       </c>
-      <c r="J17" t="n">
-        <v>6703.5</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
+      <c r="L17" t="n">
+        <v>6687</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-16.5</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731434474.0374143</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731434475.6141243</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731434474.0374143.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731434475.6141243.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>516.65</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>515.15</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>1.5</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731434480.38287</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731434486.27563</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731434480.38287.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731434486.27563.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>513.85</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>512.65</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-1.200000000000045</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731434489.128958</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731434490.2241955</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731434489.128958.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731434490.2241955.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>511.15</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>511</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-0.1499999999999773</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731434494.9717638</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731434497.60739</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731434494.9717638.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731434497.60739.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>505.35</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>506.8</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>1.449999999999989</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731434497.7204382</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731434499.2393486</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731434497.7204382.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731434499.2393486.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>233.13</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>233</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.1299999999999955</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731434507.0931258</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731434510.5169845</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731434507.0931258.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731434510.5169845.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>233.09</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>233</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.09000000000000341</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731434510.908277</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731434518.0867672</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731434510.908277.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731434518.0867672.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>232.64</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>229.98</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-2.659999999999997</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-1.14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731434518.461063</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731434518.592132</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731434518.461063.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731434518.592132.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1040.8</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>1045.6</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>4.799999999999955</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731434518.6928928</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731434522.767416</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731434518.6928928.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731434522.767416.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1048.4</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>1046.6</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>1.800000000000182</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731434523.2858524</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731434526.951141</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731434523.2858524.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731434526.951141.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>1044.8</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>1042.6</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-2.200000000000045</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731434532.605261</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731434534.1655657</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731434532.605261.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731434534.1655657.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1034.6</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>1036.8</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>2.200000000000045</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731434536.7888887</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731434541.6416583</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731434536.7888887.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731434541.6416583.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>1032.2</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>1030.6</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-1.600000000000136</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731434541.7265618</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731434541.792717</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/CNY1731434541.7265618.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/CNY1731434541.792717.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>11.872</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>11.869</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.003000000000000114</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731434542.2092588</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731434543.200647</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731434542.2092588.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731434543.200647.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>130.4</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>130.12</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731434543.4529855</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731434547.840554</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731434543.4529855.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731434547.840554.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>129.44</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>129.62</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731434548.9248984</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731434549.499377</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731434548.9248984.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731434549.499377.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>129.2</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>129.48</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731434553.5702875</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731434555.4392715</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731434553.5702875.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731434555.4392715.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>129.92</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>129.66</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.2599999999999909</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731434555.778144</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731434561.5410447</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731434555.778144.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731434561.5410447.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>129.28</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>128.86</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.4199999999999875</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731434562.6689045</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731434563.7468107</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731434562.6689045.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731434563.7468107.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>128.52</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>128.56</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.03999999999999204</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731434565.70812</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731434567.289842</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731434565.70812.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731434567.289842.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>166.4</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>165.88</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.5200000000000102</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731434572.3502357</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731434574.4934428</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731434572.3502357.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731434574.4934428.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>166.92</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>166.06</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.8599999999999852</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731434575.171125</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731434578.6012275</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731434575.171125.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731434578.6012275.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>166</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>166.44</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.4399999999999977</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731434580.9846437</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731434586.0244317</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731434580.9846437.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731434586.0244317.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>165.96</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>164.88</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-1.080000000000013</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.65</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731434586.2570412</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731434588.7531857</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731434586.2570412.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731434588.7531857.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>164.26</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>164.72</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.460000000000008</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731434588.832998</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731434588.9917417</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434588.832998.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434588.9917417.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>50.72</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>50.89</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.1700000000000017</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731434589.3133123</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731434589.9466147</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434589.3133123.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434589.9466147.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>50.985</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>50.81</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.1749999999999972</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731434595.5075967</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731434596.159084</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434595.5075967.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434596.159084.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>51.06</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>50.905</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.1550000000000011</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731434597.8377</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731434598.3609185</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434597.8377.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434598.3609185.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>50.825</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>50.965</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.1400000000000006</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731434598.577144</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731434601.7790573</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434598.577144.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434601.7790573.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>50.805</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>50.92</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.115000000000002</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731434602.6385162</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731434604.1946275</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434602.6385162.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434604.1946275.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>50.99</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>50.815</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.1750000000000043</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731434605.0926182</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731434606.4623587</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434605.0926182.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434606.4623587.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>50.74</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>50.87</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.1299999999999955</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731434609.0320358</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731434609.0320358.png</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731434609.0320358.png</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>50.725</v>
       </c>
-      <c r="J49" t="n">
-        <v>50.725</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
+      <c r="L49" t="n">
+        <v>50.57</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.1550000000000011</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731434612.0726783</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731434612.442493</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434612.0726783.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434612.442493.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>1412.4</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>1417.4</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>5</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731434618.665028</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731434620.9456744</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434618.665028.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434620.9456744.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>1421</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>1417.8</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>3.200000000000045</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731434621.8690827</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731434623.0831318</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434621.8690827.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434623.0831318.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>1416</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>1419</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>3</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731434625.3165684</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731434625.9492686</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434625.3165684.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434625.9492686.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>1418</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>1417.6</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.4000000000000909</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731434628.2257054</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731434628.8495932</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434628.2257054.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434628.8495932.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>1416.2</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>1416.6</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.3999999999998636</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731434629.2096376</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731434633.9617016</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434629.2096376.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434633.9617016.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>1412.8</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>1412.8</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3114,1323 +3613,1575 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731434636.4141083</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731434637.025532</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731434636.4141083.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731434637.025532.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>61.2</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>61.01</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.1900000000000048</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731434637.6743333</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731434638.408215</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731434637.6743333.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731434638.408215.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>60.87</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>61.05</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.1799999999999997</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731434641.6212318</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731434643.8852854</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731434641.6212318.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731434643.8852854.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>61.2</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>61.31</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-0.1099999999999994</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731434650.4596686</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731434650.812186</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731434650.4596686.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731434650.812186.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>61.34</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>61.17</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.1700000000000017</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731434651.1872518</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731434651.3592029</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731434651.1872518.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731434651.3592029.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>61.01</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>61.12</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.1099999999999994</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731434651.9236598</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731434651.9236598.png</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731434651.9236598.png</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>60.98</v>
       </c>
-      <c r="J61" t="n">
-        <v>60.98</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
+      <c r="L61" t="n">
+        <v>60.68</v>
+      </c>
+      <c r="M61" t="n">
+        <v>-0.2999999999999972</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-0.49</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731434660.1794147</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731434661.4398215</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/SELG1731434660.1794147.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/SELG1731434661.4398215.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>58.93</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>58.98</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-0.04999999999999716</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731434663.3220093</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731434666.4801447</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/SELG1731434663.3220093.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/SELG1731434666.4801447.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>58.58</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>58.71</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.1300000000000026</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731434667.983471</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731434670.539452</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/SELG1731434667.983471.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/SELG1731434670.539452.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>58.18</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>58.3</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.1199999999999974</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731434675.4229808</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731434675.4229808.png</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731434675.4229808.png</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>58</v>
       </c>
-      <c r="J65" t="n">
-        <v>58</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
+      <c r="L65" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="M65" t="n">
+        <v>-0.7999999999999972</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-1.38</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731434687.8942883</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731434688.3685825</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731434687.8942883.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731434688.3685825.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>145.14</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>144.62</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.5199999999999818</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731434688.613419</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731434688.7386441</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731434688.613419.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731434688.7386441.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>144.5</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>145.14</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.6399999999999864</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731434688.753602</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731434689.2295353</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731434688.753602.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731434689.2295353.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>145.14</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>144.78</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.3599999999999852</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731434689.5680256</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731434690.9424365</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731434689.5680256.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731434690.9424365.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>145.5</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>145.02</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.4799999999999898</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731434693.8555684</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731434695.7525024</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731434693.8555684.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731434695.7525024.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>145.8</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>145.2</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.6000000000000227</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731434695.823971</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731434695.823971.png</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731434695.823971.png</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>144.62</v>
       </c>
-      <c r="J71" t="n">
-        <v>144.62</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0</v>
+      <c r="L71" t="n">
+        <v>142.98</v>
+      </c>
+      <c r="M71" t="n">
+        <v>-1.640000000000015</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-1.13</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731434708.0251472</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731434711.6443036</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731434708.0251472.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731434711.6443036.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>21.475</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>21.32</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.1550000000000011</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.72</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731434711.840633</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731434713.4054446</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731434711.840633.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731434713.4054446.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>21.276</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>21.386</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.1099999999999994</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731434714.2952962</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731434720.781217</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731434714.2952962.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731434720.781217.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>21.285</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>21.174</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-0.1110000000000007</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-0.52</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731434721.6830628</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731434721.6830628.png</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731434721.6830628.png</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>21.104</v>
       </c>
-      <c r="J75" t="n">
-        <v>21.104</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0</v>
+      <c r="L75" t="n">
+        <v>20.831</v>
+      </c>
+      <c r="M75" t="n">
+        <v>-0.2729999999999997</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-1.29</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731434732.345985</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731434734.5074434</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731434732.345985.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731434734.5074434.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>682.3</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>683.85</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>1.550000000000068</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731434735.29651</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731434735.7348206</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731434735.29651.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731434735.7348206.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>684.65</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>683.2</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>1.449999999999932</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731434737.1139114</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731434740.8807323</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731434737.1139114.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731434740.8807323.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>681.8</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>682.35</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.5500000000000682</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731434742.1874623</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731434749.2536414</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731434742.1874623.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731434749.2536414.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>681.05</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>678.6</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>-2.449999999999932</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731434750.6681778</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731434750.6681778.png</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731434750.6681778.png</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>679.15</v>
       </c>
-      <c r="J80" t="n">
-        <v>679.15</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0</v>
+      <c r="L80" t="n">
+        <v>679.2</v>
+      </c>
+      <c r="M80" t="n">
+        <v>-0.05000000000006821</v>
+      </c>
+      <c r="N80" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731434751.2491798</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731434751.2491798.png</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731434751.2491798.png</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>379.23</v>
       </c>
-      <c r="J81" t="n">
-        <v>379.23</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0</v>
+      <c r="L81" t="n">
+        <v>378.22</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1.009999999999991</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731434752.7390935</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731434753.125785</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/FEES1731434752.7390935.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/FEES1731434753.125785.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>0.0994</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>0.09976</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.0003599999999999992</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731434755.6434326</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731434760.3082519</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/FEES1731434755.6434326.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/FEES1731434760.3082519.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>0.10016</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>0.10016</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4438,1642 +5189,1948 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731434761.1199331</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731434766.266543</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/FEES1731434761.1199331.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/FEES1731434766.266543.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>0.10038</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>0.10058</v>
       </c>
-      <c r="K84" t="n">
-        <v>-0.0001999999999999919</v>
+      <c r="M84" t="n">
+        <v>-0.0002000000000000057</v>
+      </c>
+      <c r="N84" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731434767.6791399</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731434767.6791399.png</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731434767.6791399.png</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>0.10018</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.10018</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0</v>
+      <c r="L85" t="n">
+        <v>0.09927999999999999</v>
+      </c>
+      <c r="M85" t="n">
+        <v>-0.0009000000000000119</v>
+      </c>
+      <c r="N85" t="n">
+        <v>-0.8999999999999999</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731434779.0762408</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731434781.0623105</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731434779.0762408.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731434781.0623105.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>0.6028</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>0.6042000000000001</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>0.001400000000000068</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731434786.4106743</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731434786.908504</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731434786.4106743.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731434786.908504.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>0.6032000000000001</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>0.6043000000000001</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>0.00109999999999999</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731434787.936071</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731434788.2172768</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731434787.936071.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731434788.2172768.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>0.6032000000000001</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>0.604</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>0.0007999999999999119</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731434788.3209524</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731434788.4184668</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731434788.3209524.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731434788.4184668.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>0.6039</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>0.6044</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>0.000500000000000056</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731434788.6620955</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731434789.9778588</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731434788.6620955.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731434789.9778588.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>0.605</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>0.6048</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>0.000199999999999978</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731434793.7660856</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>./test_images/HYDR1731434793.7660856.png</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
+          <t>./test_images/HYDR1731434793.7660856.png</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>0.6034</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.6034</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0</v>
+      <c r="L91" t="n">
+        <v>0.6012999999999999</v>
+      </c>
+      <c r="M91" t="n">
+        <v>-0.002100000000000102</v>
+      </c>
+      <c r="N91" t="n">
+        <v>-0.35</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731434799.0818493</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731434800.155833</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434799.0818493.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434800.155833.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>3036.2</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>3037.4</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>-1.200000000000273</v>
+      </c>
+      <c r="N92" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731434800.2606034</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731434800.6249285</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434800.2606034.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434800.6249285.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>3035.7</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>3038.45</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>2.75</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731434800.789488</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731434801.2472777</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434800.789488.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434801.2472777.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>3034.9</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>3034.4</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>-0.5</v>
+      </c>
+      <c r="N94" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731434801.8148007</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731434802.559749</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434801.8148007.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434802.559749.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>3028.25</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>3031.1</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>2.849999999999909</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731434804.265337</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731434804.335378</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434804.265337.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434804.335378.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>3024.7</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>3027.9</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>3.200000000000273</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731434804.3838172</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731434805.898023</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434804.3838172.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434805.898023.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>3030.65</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>3031.15</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>-0.5</v>
+      </c>
+      <c r="N97" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731434806.071012</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731434807.0129237</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434806.071012.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434807.0129237.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>3029</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>3026.9</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>-2.099999999999909</v>
+      </c>
+      <c r="N98" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731434807.9614823</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1731434808.2855508</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434807.9614823.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434808.2855508.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>3017.25</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>3022.9</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>5.650000000000091</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1731434809.0215344</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1731434809.9719644</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434809.0215344.png</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434809.9719644.png</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>3015.9</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>3018.55</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>2.650000000000091</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1731434810.0987527</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>1731434810.3879535</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434810.0987527.png</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434810.3879535.png</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>3019.9</v>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>3018.3</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>1.599999999999909</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1731434811.0051692</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>1731434811.2574348</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434811.0051692.png</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434811.2574348.png</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>3016.35</v>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>3021.8</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>5.450000000000273</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>1731434811.3258808</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>1731434813.1511211</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434811.3258808.png</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434813.1511211.png</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
         <v>3022.15</v>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>3024.65</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
         <v>-2.5</v>
+      </c>
+      <c r="N103" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>1731434813.30957</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>1731434813.6889205</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434813.30957.png</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434813.6889205.png</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
         <v>3022.15</v>
       </c>
-      <c r="J104" t="n">
+      <c r="L104" t="n">
         <v>3027.75</v>
       </c>
-      <c r="K104" t="n">
+      <c r="M104" t="n">
         <v>5.599999999999909</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>1731434814.3478127</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>1731434817.4603915</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434814.3478127.png</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434817.4603915.png</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
         <v>3019.95</v>
       </c>
-      <c r="J105" t="n">
+      <c r="L105" t="n">
         <v>3005.6</v>
       </c>
-      <c r="K105" t="n">
+      <c r="M105" t="n">
         <v>-14.34999999999991</v>
+      </c>
+      <c r="N105" t="n">
+        <v>-0.48</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>1731434818.3585877</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>1731434818.5940685</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434818.3585877.png</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434818.5940685.png</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
         <v>3007.7</v>
       </c>
-      <c r="J106" t="n">
+      <c r="L106" t="n">
         <v>3004.3</v>
       </c>
-      <c r="K106" t="n">
+      <c r="M106" t="n">
         <v>3.399999999999636</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
+        <v>105</v>
+      </c>
+      <c r="D107" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>1731434818.6099923</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>1731434819.867929</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434818.6099923.png</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434819.867929.png</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
         <v>3004.3</v>
       </c>
-      <c r="J107" t="n">
+      <c r="L107" t="n">
         <v>3003.2</v>
       </c>
-      <c r="K107" t="n">
+      <c r="M107" t="n">
         <v>-1.100000000000364</v>
+      </c>
+      <c r="N107" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" t="n">
+        <v>106</v>
+      </c>
+      <c r="D108" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>1731434820.2995784</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>1731434820.4908147</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434820.2995784.png</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434820.4908147.png</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I108" t="n">
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
         <v>3003.35</v>
       </c>
-      <c r="J108" t="n">
+      <c r="L108" t="n">
         <v>3001.05</v>
       </c>
-      <c r="K108" t="n">
+      <c r="M108" t="n">
         <v>2.299999999999727</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" t="n">
+        <v>107</v>
+      </c>
+      <c r="C109" t="n">
+        <v>107</v>
+      </c>
+      <c r="D109" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>1731434820.8245468</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>1731434821.896445</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434820.8245468.png</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434821.896445.png</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I109" t="n">
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
         <v>2999.15</v>
       </c>
-      <c r="J109" t="n">
+      <c r="L109" t="n">
         <v>2996.3</v>
       </c>
-      <c r="K109" t="n">
+      <c r="M109" t="n">
         <v>-2.849999999999909</v>
+      </c>
+      <c r="N109" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" t="n">
+        <v>108</v>
+      </c>
+      <c r="C110" t="n">
+        <v>108</v>
+      </c>
+      <c r="D110" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>1731434823.2549381</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731434823.2549381.png</t>
         </is>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731434823.2549381.png</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
         <v>2996.95</v>
       </c>
-      <c r="J110" t="n">
-        <v>2996.95</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0</v>
+      <c r="L110" t="n">
+        <v>2996.05</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0.8999999999996362</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" t="n">
+        <v>109</v>
+      </c>
+      <c r="C111" t="n">
+        <v>109</v>
+      </c>
+      <c r="D111" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>1731434827.0108306</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>1731434828.9695337</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731434827.0108306.png</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731434828.9695337.png</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I111" t="n">
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
         <v>34.705</v>
       </c>
-      <c r="J111" t="n">
+      <c r="L111" t="n">
         <v>34.845</v>
       </c>
-      <c r="K111" t="n">
+      <c r="M111" t="n">
         <v>0.1400000000000006</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" t="n">
+        <v>110</v>
+      </c>
+      <c r="C112" t="n">
+        <v>110</v>
+      </c>
+      <c r="D112" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>1731434830.6749012</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>1731434831.733488</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731434830.6749012.png</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731434831.733488.png</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I112" t="n">
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
         <v>34.935</v>
       </c>
-      <c r="J112" t="n">
+      <c r="L112" t="n">
         <v>34.8</v>
       </c>
-      <c r="K112" t="n">
+      <c r="M112" t="n">
         <v>0.1350000000000051</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B113" t="n">
+        <v>111</v>
+      </c>
+      <c r="C113" t="n">
+        <v>111</v>
+      </c>
+      <c r="D113" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>1731434832.2337368</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>1731434833.3204558</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731434832.2337368.png</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731434833.3204558.png</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="I113" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I113" t="n">
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
         <v>34.96</v>
       </c>
-      <c r="J113" t="n">
+      <c r="L113" t="n">
         <v>34.785</v>
       </c>
-      <c r="K113" t="n">
+      <c r="M113" t="n">
         <v>0.1750000000000043</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" t="n">
+        <v>112</v>
+      </c>
+      <c r="C114" t="n">
+        <v>112</v>
+      </c>
+      <c r="D114" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>1731434835.0297098</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>1731434836.037786</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731434835.0297098.png</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731434836.037786.png</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
         <v>34.765</v>
       </c>
-      <c r="J114" t="n">
+      <c r="L114" t="n">
         <v>34.85</v>
       </c>
-      <c r="K114" t="n">
+      <c r="M114" t="n">
         <v>0.08500000000000085</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" t="n">
+        <v>113</v>
+      </c>
+      <c r="C115" t="n">
+        <v>113</v>
+      </c>
+      <c r="D115" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>1731434837.0187442</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>1731434839.5958045</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731434837.0187442.png</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731434839.5958045.png</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I115" t="n">
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
         <v>34.73</v>
       </c>
-      <c r="J115" t="n">
+      <c r="L115" t="n">
         <v>34.935</v>
       </c>
-      <c r="K115" t="n">
+      <c r="M115" t="n">
         <v>0.2050000000000054</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.59</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" t="n">
+        <v>114</v>
+      </c>
+      <c r="C116" t="n">
+        <v>114</v>
+      </c>
+      <c r="D116" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>1731434839.6127598</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>1731434839.7184014</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731434839.6127598.png</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731434839.7184014.png</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I116" t="n">
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
         <v>34.935</v>
       </c>
-      <c r="J116" t="n">
+      <c r="L116" t="n">
         <v>34.74</v>
       </c>
-      <c r="K116" t="n">
+      <c r="M116" t="n">
         <v>0.1950000000000003</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.5599999999999999</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B117" t="n">
+        <v>115</v>
+      </c>
+      <c r="C117" t="n">
+        <v>115</v>
+      </c>
+      <c r="D117" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>1731434840.722168</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>1731434847.3622026</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731434840.722168.png</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731434847.3622026.png</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I117" t="n">
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
         <v>34.545</v>
       </c>
-      <c r="J117" t="n">
+      <c r="L117" t="n">
         <v>34.44</v>
       </c>
-      <c r="K117" t="n">
+      <c r="M117" t="n">
         <v>-0.105000000000004</v>
+      </c>
+      <c r="N117" t="n">
+        <v>-0.3</v>
       </c>
     </row>
   </sheetData>
@@ -6087,7 +7144,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6116,6 +7173,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -6124,13 +7191,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.34999999999945</v>
+        <v>11.24999999999909</v>
       </c>
       <c r="C2" t="n">
         <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5447368421052344</v>
+        <v>0.5921052631578468</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -6140,13 +7213,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.060000000000002</v>
+        <v>0.9050000000000011</v>
       </c>
       <c r="C3" t="n">
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1325000000000003</v>
+        <v>0.1131250000000001</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="4">
@@ -6164,6 +7243,12 @@
       <c r="D4" t="n">
         <v>0.1185714285714304</v>
       </c>
+      <c r="E4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -6180,6 +7265,12 @@
       <c r="D5" t="n">
         <v>0.1033333333333341</v>
       </c>
+      <c r="E5" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -6188,13 +7279,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5400000000000063</v>
+        <v>0.2400000000000091</v>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09000000000000104</v>
+        <v>0.04000000000000151</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -6204,13 +7301,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.5</v>
+        <v>-1</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>2.583333333333333</v>
+        <v>-0.1666666666666667</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.01999999999999996</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0</v>
       </c>
     </row>
     <row r="8">
@@ -6220,13 +7323,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.004000000000000004</v>
+        <v>0.001899999999999902</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0006666666666666673</v>
+        <v>0.0003166666666666503</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.2999999999999999</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="9">
@@ -6244,6 +7353,12 @@
       <c r="D9" t="n">
         <v>0.2083333333333286</v>
       </c>
+      <c r="E9" t="n">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -6260,6 +7375,12 @@
       <c r="D10" t="n">
         <v>2</v>
       </c>
+      <c r="E10" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -6268,13 +7389,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.599999999999966</v>
+        <v>0.9599999999999511</v>
       </c>
       <c r="C11" t="n">
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4333333333333276</v>
+        <v>0.1599999999999918</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6600000000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="12">
@@ -6284,13 +7411,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.100000000000136</v>
+        <v>1.050000000000068</v>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2200000000000273</v>
+        <v>0.2100000000000136</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="13">
@@ -6308,6 +7441,12 @@
       <c r="D13" t="n">
         <v>0.2399999999999977</v>
       </c>
+      <c r="E13" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -6324,6 +7463,12 @@
       <c r="D14" t="n">
         <v>1</v>
       </c>
+      <c r="E14" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -6332,13 +7477,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2000000000000028</v>
+        <v>-0.5999999999999943</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>0.05000000000000071</v>
+        <v>-0.1499999999999986</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.26</v>
       </c>
     </row>
     <row r="16">
@@ -6348,13 +7499,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0001600000000000074</v>
+        <v>-0.0007400000000000184</v>
       </c>
       <c r="C16" t="n">
         <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>4.000000000000184e-05</v>
+        <v>-0.0001850000000000046</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.74</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="17">
@@ -6372,6 +7529,12 @@
       <c r="D17" t="n">
         <v>0.3999999999999915</v>
       </c>
+      <c r="E17" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -6380,13 +7543,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1539999999999999</v>
+        <v>-0.1189999999999998</v>
       </c>
       <c r="C18" t="n">
         <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>0.03849999999999998</v>
+        <v>-0.02974999999999994</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.5700000000000001</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="19">
@@ -6404,6 +7573,12 @@
       <c r="D19" t="n">
         <v>-0.8133333333333326</v>
       </c>
+      <c r="E19" t="n">
+        <v>-1.04</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.35</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -6420,6 +7595,12 @@
       <c r="D20" t="n">
         <v>-0.136666666666675</v>
       </c>
+      <c r="E20" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.05</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -6436,6 +7617,12 @@
       <c r="D21" t="n">
         <v>0.003000000000000114</v>
       </c>
+      <c r="E21" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -6444,13 +7631,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1.009999999999991</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.009999999999991</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="23">
@@ -6466,6 +7659,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
